--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -451,743 +451,1001 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>161038</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>86.83</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>92.80</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002730</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华富华鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002731</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华富华鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1476,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>510500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>南方中证500ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>377.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501036</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)A</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501037</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)C</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005360</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安资产轮动灵活配置混合</t>
+          <t>华夏中证500ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>35.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>009794</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>太平智选一年定期开放股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>159922</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>嘉实中证500ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>510510</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>广发中证500ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1518,25 +1886,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>165511</t>
+          <t>159820</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）A</t>
+          <t>天弘中证500ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009794</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太平智选一年定期开放股票</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>510590</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>平安中证500ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010066</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>方正富邦中证500指数增强A</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1630,25 +2038,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010067</t>
+          <t>510580</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正富邦中证500指数增强C</t>
+          <t>易方达中证500ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>九泰久福量化股票A</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010121</t>
+          <t>001839</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰久福量化股票C</t>
+          <t>九泰久兴灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006611</t>
+          <t>159968</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>人保中证500指数</t>
+          <t>博时中证500ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>512510</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>华泰柏瑞中证500ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006784</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1798,25 +2266,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>510440</t>
+          <t>003016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成中证500沪市ETF</t>
+          <t>中金中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1826,25 +2304,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>510500</t>
+          <t>010992</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方中证500ETF</t>
+          <t>西藏东财中证500指数A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>510510</t>
+          <t>160616</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发中证500ETF</t>
+          <t>鹏华中证500指数(LOF) A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1892,15 +2390,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>99.07</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1910,25 +2418,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>510550</t>
+          <t>501036</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>方正富邦中证500ETF</t>
+          <t>汇添富中证500指数(LOF)A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1938,25 +2456,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>159982</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>鹏华中证500ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>510570</t>
+          <t>001897</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业中证500ETF</t>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>510580</t>
+          <t>003578</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>易方达中证500ETF</t>
+          <t>中金中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>510590</t>
+          <t>009043</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平安中证500ETF</t>
+          <t>九泰久信量化股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2050,25 +2608,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010992</t>
+          <t>165511</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数A</t>
+          <t>信诚中证500指数（LOF）A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2088,15 +2656,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>95.03</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011025</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰久元量化股票A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011026</t>
+          <t>510570</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰久元量化股票C</t>
+          <t>兴业中证500ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华夏中证500ETF</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>97.49</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2190,25 +2798,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>512510</t>
+          <t>501037</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500ETF</t>
+          <t>汇添富中证500指数(LOF)C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>515190</t>
+          <t>510440</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中银证券中证500ETF</t>
+          <t>大成中证500沪市ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>5</v>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>515530</t>
+          <t>008230</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>泰康中证500ETF</t>
+          <t>九泰天辰量化新动力股票</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>515550</t>
+          <t>005360</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融中证500ETF</t>
+          <t>汇安资产轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>515190</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>中银证券中证500ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>159935</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>景顺长城中证500ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>159820</t>
+          <t>011025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天弘中证500ETF</t>
+          <t>九泰久元量化股票A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>159922</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>嘉实中证500ETF</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2414,25 +3102,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>159935</t>
+          <t>660011</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>景顺长城中证500ETF</t>
+          <t>农银中证500指数</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>98.55</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>159968</t>
+          <t>002730</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博时中证500ETF</t>
+          <t>华富华鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>159982</t>
+          <t>009039</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹏华中证500ETF</t>
+          <t>九泰久远量化驱动股票A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>001839</t>
+          <t>515530</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>九泰久兴灵活配置混合</t>
+          <t>泰康中证500ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2526,25 +3254,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>鹏华中证500指数(LOF) C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>97.16</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2554,25 +3292,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>159999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>永赢中证500ETF</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>001897</t>
+          <t>006611</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
+          <t>人保中证500指数</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>004510</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>160616</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) A</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>5</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>006938</t>
+          <t>011026</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) C</t>
+          <t>九泰久元量化股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>5</v>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>006784</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>红土创新中证500指数增强C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>660011</t>
+          <t>515550</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>农银中证500指数</t>
+          <t>中融中证500ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2750,25 +3558,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>009039</t>
+          <t>009040</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>九泰久远量化驱动股票A</t>
+          <t>九泰久远量化驱动股票C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>94.28</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>009040</t>
+          <t>510550</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>九泰久远量化驱动股票C</t>
+          <t>方正富邦中证500ETF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>009043</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>九泰久信量化股票</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002730</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合A</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002731</t>
+          <t>010066</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合C</t>
+          <t>方正富邦中证500指数增强A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4</v>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>003016</t>
+          <t>004510</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中金中证500指数增强A</t>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>003578</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中金中证500指数增强C</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>010067</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>方正富邦中证500指数增强C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>3</v>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>002731</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>华富华鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008230</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>九泰天辰量化新动力股票</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3935,4 +3936,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4144,4 +4145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -4169,12 +4169,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2928</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.32</v>
       </c>
     </row>
     <row r="4">
@@ -580,870 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002730</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华富华鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002731</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华富华鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -1452,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3939,13 +3227,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3996,36 +3284,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8764</t>
+          <t>0.2928</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4034,36 +3322,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159870</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证细分化工产业主题ETF</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.38</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5043</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4072,32 +3360,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516120</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证细分化工产业主题ETF</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2876</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4110,120 +3398,832 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516220</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证细分化工产业主题ETF</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.11</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.0645</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600143-金发科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.32</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -532,6 +549,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -739,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3227,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
